--- a/AAII_Financials/Quarterly/SHNL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHNL_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>SHNL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,77 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>40268</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>40178</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>40086</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>39964</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>39872</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,22 +761,28 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2800</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -794,23 +807,29 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1500</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,23 +854,29 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +892,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,23 +920,29 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +982,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1029,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1076,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,8 +1096,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1054,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1066,28 +1119,34 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1107,28 +1166,34 @@
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1209,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1252,14 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1211,31 +1284,37 @@
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1252,31 +1331,37 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1288,28 +1373,34 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1334,11 +1425,11 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1349,8 +1440,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,16 +1487,22 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1411,36 +1514,42 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1452,28 +1561,34 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1628,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1675,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1722,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1769,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1677,16 +1816,22 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -1698,28 +1843,34 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,16 +1910,22 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -1780,74 +1937,86 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>40268</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>40178</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>40086</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>39964</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>39872</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2032,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,8 +2051,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1897,20 +2070,20 @@
       <c r="G41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -1918,11 +2091,17 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,13 +2141,19 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -1979,32 +2164,38 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3">
         <v>2500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3500</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2038,14 +2229,20 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2071,27 +2268,33 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>0</v>
+      <c r="D46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2105,29 +2308,35 @@
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>2700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3900</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,8 +2376,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2202,14 +2417,20 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2470,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2517,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2564,14 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2358,22 +2597,28 @@
         <v>0</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>1100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>900</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,13 +2658,19 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>0</v>
+      <c r="D54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2433,29 +2684,35 @@
       <c r="H54" s="3">
         <v>0</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>3800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4000</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2728,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2747,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2505,11 +2766,11 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -2517,28 +2778,34 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2549,11 +2816,11 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -2570,8 +2837,14 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2587,40 +2860,46 @@
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>100</v>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -2631,29 +2910,35 @@
       <c r="H60" s="3">
         <v>0</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2978,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +3025,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3072,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3119,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,16 +3166,22 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>0</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -2877,29 +3192,35 @@
       <c r="H66" s="3">
         <v>0</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>100</v>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O66" s="3">
+        <v>200</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3236,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3279,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3326,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3373,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,16 +3420,22 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-600</v>
+        <v>-2100</v>
       </c>
       <c r="E72" s="3">
-        <v>-600</v>
+        <v>-2100</v>
       </c>
       <c r="F72" s="3">
         <v>-600</v>
@@ -3099,29 +3446,35 @@
       <c r="H72" s="3">
         <v>-600</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="I72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>3000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>3300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>3200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3514,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3561,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,16 +3608,22 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>0</v>
@@ -3263,29 +3634,35 @@
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3700</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,62 +3702,74 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>40268</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>40178</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>40086</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>39964</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>39872</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -3392,28 +3781,34 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3824,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3458,11 +3855,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
@@ -3470,8 +3867,14 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3914,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3961,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4008,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4055,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,8 +4102,14 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3702,22 +4135,28 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +4172,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3774,8 +4215,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4262,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4309,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3883,22 +4342,28 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4379,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4422,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4469,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4516,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,8 +4563,14 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4104,23 +4595,29 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4148,11 +4645,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
@@ -4160,13 +4657,19 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4199,6 +4702,12 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHNL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHNL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>SHNL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40268</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40178</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40086</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>39964</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>39872</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,22 +771,25 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2800</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -813,23 +820,26 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1500</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,23 +870,26 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,23 +940,26 @@
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1107,11 +1134,11 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1125,28 +1152,31 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,11 +1184,11 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
@@ -1172,28 +1202,31 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1290,12 +1327,12 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1305,19 +1342,22 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1337,8 +1377,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1346,26 +1386,29 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1379,28 +1422,31 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1431,8 +1477,8 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,20 +1542,23 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1520,40 +1572,43 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -1567,28 +1622,31 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,20 +1892,23 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -1849,28 +1922,31 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,20 +1992,23 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -1943,80 +2022,86 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40268</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40178</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40086</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>39964</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>39872</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,16 +2139,17 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>4</v>
@@ -2076,17 +2163,17 @@
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2097,11 +2184,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,16 +2237,19 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2170,8 +2263,8 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2179,23 +2272,26 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3">
         <v>2500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3500</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2235,14 +2331,17 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2274,27 +2373,30 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2314,29 +2416,32 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>2700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3900</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2423,14 +2531,17 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>0</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2603,22 +2723,25 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>1100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>900</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,13 +2787,16 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2690,29 +2816,32 @@
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
+      <c r="K54" s="3">
+        <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>3800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>4000</v>
       </c>
       <c r="O54" s="3">
         <v>4000</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2772,8 +2903,8 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -2784,8 +2915,8 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -2793,22 +2924,25 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2822,8 +2956,8 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2843,8 +2977,11 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2866,43 +3003,46 @@
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -2916,29 +3056,32 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
+      <c r="K60" s="3">
+        <v>0</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,19 +3327,22 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>0</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -3198,29 +3356,32 @@
       <c r="J66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
+      <c r="K66" s="3">
+        <v>0</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3438,7 +3612,7 @@
         <v>-2100</v>
       </c>
       <c r="F72" s="3">
-        <v>-600</v>
+        <v>-2100</v>
       </c>
       <c r="G72" s="3">
         <v>-600</v>
@@ -3452,29 +3626,32 @@
       <c r="J72" s="3">
         <v>-600</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
+      <c r="K72" s="3">
+        <v>-600</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>3000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>3300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>3200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,19 +3797,22 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -3640,29 +3826,32 @@
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3700</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,72 +3897,78 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40268</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40178</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40086</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>39964</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>39872</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -3787,28 +3982,31 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3861,8 +4060,8 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4141,22 +4358,25 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4348,22 +4578,25 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4601,23 +4847,26 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
-        <v>500</v>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>500</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4651,8 +4900,8 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
@@ -4663,13 +4912,16 @@
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHNL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHNL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
   <si>
     <t>SHNL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,100 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="S7" s="2">
         <v>40268</v>
       </c>
-      <c r="O7" s="2">
+      <c r="T7" s="2">
         <v>40178</v>
       </c>
-      <c r="P7" s="2">
+      <c r="U7" s="2">
         <v>40086</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="V7" s="2">
         <v>39964</v>
       </c>
-      <c r="R7" s="2">
+      <c r="W7" s="2">
         <v>39872</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,22 +793,37 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="U8" s="3">
         <v>2800</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -823,23 +857,38 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="T9" s="3">
         <v>1100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="U9" s="3">
         <v>1500</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,23 +922,38 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="U10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +972,13 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,23 +1012,38 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1092,23 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1157,23 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1222,23 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1254,13 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1137,46 +1271,61 @@
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="T17" s="3">
         <v>1400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="U17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1187,46 +1336,61 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="U18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1409,13 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1464,23 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1330,23 +1514,38 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1356,11 +1555,11 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1371,8 +1570,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1380,14 +1579,14 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1395,8 +1594,23 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1407,69 +1621,84 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="U23" s="3">
         <v>500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1480,23 +1709,38 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1789,23 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1557,46 +1816,61 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1607,46 +1881,61 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="T27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1984,23 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +2049,23 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +2114,23 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +2179,23 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +2244,23 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1907,46 +2271,61 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="T33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2374,23 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2007,101 +2401,131 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="T35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="S38" s="2">
         <v>40268</v>
       </c>
-      <c r="O38" s="2">
+      <c r="T38" s="2">
         <v>40178</v>
       </c>
-      <c r="P38" s="2">
+      <c r="U38" s="2">
         <v>40086</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="V38" s="2">
         <v>39964</v>
       </c>
-      <c r="R38" s="2">
+      <c r="W38" s="2">
         <v>39872</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2544,13 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,16 +2569,21 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>4</v>
@@ -2157,17 +2591,17 @@
       <c r="G41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
@@ -2175,23 +2609,38 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,16 +2689,31 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2266,32 +2730,47 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
         <v>2500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="T43" s="3">
         <v>3100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="U43" s="3">
         <v>3500</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2334,14 +2813,29 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2376,22 +2870,37 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2419,29 +2928,44 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>2700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="T46" s="3">
         <v>3100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="U46" s="3">
         <v>3900</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +3014,23 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2534,14 +3073,29 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +3144,23 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +3209,23 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +3274,23 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2726,22 +3325,37 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>1100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="T52" s="3">
         <v>900</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +3404,23 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2819,29 +3448,44 @@
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>3800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="T54" s="3">
         <v>4000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="U54" s="3">
         <v>4000</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3504,13 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3529,13 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2906,73 +3560,88 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -2980,34 +3649,49 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -3015,73 +3699,103 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
-        <v>0</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3844,23 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3909,23 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3974,23 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +4039,23 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +4104,88 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="3">
-        <v>0</v>
-      </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
       </c>
       <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
-        <v>0</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +4204,13 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +4259,23 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +4324,23 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +4389,23 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +4454,23 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3615,43 +4484,58 @@
         <v>-2100</v>
       </c>
       <c r="G72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="M72" s="3">
         <v>-600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="N72" s="3">
         <v>-600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="O72" s="3">
         <v>-600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="P72" s="3">
         <v>-600</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>3000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="T72" s="3">
         <v>3300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="U72" s="3">
         <v>3200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="V72" s="3">
         <v>-100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4584,23 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4649,23 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4714,88 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
       </c>
       <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
-        <v>0</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>3600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="T76" s="3">
         <v>3800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="U76" s="3">
         <v>3700</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4844,93 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="S80" s="2">
         <v>40268</v>
       </c>
-      <c r="O80" s="2">
+      <c r="T80" s="2">
         <v>40178</v>
       </c>
-      <c r="P80" s="2">
+      <c r="U80" s="2">
         <v>40086</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="V80" s="2">
         <v>39964</v>
       </c>
-      <c r="R80" s="2">
+      <c r="W80" s="2">
         <v>39872</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3967,46 +4941,61 @@
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="T81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +5014,13 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4063,20 +5057,35 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +5134,23 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +5199,23 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +5264,23 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +5329,23 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +5394,23 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4361,22 +5445,37 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +5494,13 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +5549,23 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +5614,23 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +5679,23 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4581,22 +5730,37 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="T94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5779,13 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5834,23 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5899,23 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5964,23 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +6029,23 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4850,23 +6079,38 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4903,20 +6147,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +6222,21 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SHNL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SHNL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>SHNL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,103 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>40268</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>40178</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>40086</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>39964</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>39872</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,22 +811,25 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2800</v>
       </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -872,23 +878,26 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1500</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,23 +946,26 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1300</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,23 +1040,26 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
+      <c r="V12" s="3">
+        <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,8 +1284,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1286,11 +1312,11 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>1400</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1304,28 +1330,31 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2200</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1351,11 +1380,11 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1369,28 +1398,31 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>600</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1446,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1479,8 +1512,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1529,12 +1565,12 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1544,13 +1580,16 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1558,11 +1597,11 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1570,11 +1609,11 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1594,8 +1633,8 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1603,14 +1642,17 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1636,11 +1678,11 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1654,28 +1696,31 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>500</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,8 +1745,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1724,8 +1769,8 @@
       <c r="R24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1739,8 +1784,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,8 +1852,11 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1831,11 +1882,11 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1849,28 +1900,31 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1896,11 +1950,11 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1914,28 +1968,31 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2260,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2259,8 +2328,11 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2286,11 +2358,11 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2304,28 +2376,31 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,8 +2464,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2416,11 +2494,11 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2434,98 +2512,104 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>40268</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>40178</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>40086</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>39964</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>39872</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,13 +2659,14 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>0</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>4</v>
@@ -2591,8 +2677,8 @@
       <c r="G41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2600,8 +2686,8 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
@@ -2615,17 +2701,17 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2636,11 +2722,14 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2793,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2745,8 +2837,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2754,23 +2846,26 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
         <v>2500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3500</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2828,14 +2923,17 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
+      <c r="V44" s="3">
+        <v>0</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2885,22 +2983,25 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2943,29 +3044,32 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
+      <c r="Q46" s="3">
+        <v>0</v>
       </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3">
         <v>2700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3900</v>
       </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3133,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3088,14 +3195,17 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
+      <c r="V48" s="3">
+        <v>0</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3269,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3405,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3340,22 +3459,25 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>1100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>900</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3541,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3463,29 +3588,32 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
+      <c r="Q54" s="3">
+        <v>0</v>
       </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3">
         <v>3800</v>
-      </c>
-      <c r="T54" s="3">
-        <v>4000</v>
       </c>
       <c r="U54" s="3">
         <v>4000</v>
       </c>
       <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+        <v>4000</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,13 +3663,14 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3575,8 +3705,8 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
@@ -3587,8 +3717,8 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -3596,11 +3726,14 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3608,7 +3741,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3623,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3643,8 +3776,8 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3664,34 +3797,37 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -3705,32 +3841,35 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3738,7 +3877,7 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -3753,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
@@ -3773,29 +3912,32 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
+      <c r="Q60" s="3">
+        <v>0</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4001,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4069,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4273,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4128,7 +4285,7 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -4143,13 +4300,13 @@
         <v>0</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
@@ -4163,29 +4320,32 @@
       <c r="P66" s="3">
         <v>0</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
+      <c r="Q66" s="3">
+        <v>0</v>
       </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,13 +4639,16 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="E72" s="3">
         <v>-2100</v>
@@ -4499,7 +4672,7 @@
         <v>-2100</v>
       </c>
       <c r="L72" s="3">
-        <v>-600</v>
+        <v>-2100</v>
       </c>
       <c r="M72" s="3">
         <v>-600</v>
@@ -4513,29 +4686,32 @@
       <c r="P72" s="3">
         <v>-600</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
+      <c r="Q72" s="3">
+        <v>-600</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>3000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>3300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>3200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-100</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4911,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4741,7 +4926,7 @@
         <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -4753,13 +4938,13 @@
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
@@ -4773,29 +4958,32 @@
       <c r="P76" s="3">
         <v>0</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
+      <c r="Q76" s="3">
+        <v>0</v>
       </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>3600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3700</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,78 +5047,84 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>40268</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>40178</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>40086</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>39964</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>39872</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4956,11 +5150,11 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -4974,28 +5168,31 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5072,8 +5270,8 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>4</v>
@@ -5084,8 +5282,11 @@
       <c r="W83" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5622,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5460,22 +5676,25 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5718,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5784,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5920,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5745,22 +5974,25 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-900</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6286,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6094,23 +6339,26 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
-        <v>500</v>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U100" s="3">
         <v>500</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6162,8 +6410,8 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>4</v>
@@ -6174,8 +6422,11 @@
       <c r="W101" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6488,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>
